--- a/common/file_templates/i_list_phone.xlsx
+++ b/common/file_templates/i_list_phone.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve">Номер телефона </t>
+  </si>
+  <si>
+    <t>[application.original]</t>
+  </si>
+  <si>
+    <t>Подача документа об образовании</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
   <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,31 +1107,34 @@
       <c r="C24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="M24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1140,30 +1149,33 @@
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>44</v>
       </c>
     </row>
